--- a/medicine/Mort/Monument_Um_Nyobe/Monument_Um_Nyobe.xlsx
+++ b/medicine/Mort/Monument_Um_Nyobe/Monument_Um_Nyobe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument Um Nyobe, est situé dans la commune d'Eseka au Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le 22 juin 2007, un monument à sa mémoire a été érigé. Ce monument représente l’arrivée de Ruben Um Nyobe à la gare d'Éséka en 1952 alors qu’il revient d’un sommet de l’ONU.
 </t>
@@ -542,10 +556,12 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument est situé à Eséka; au carrefour Abbé Nicolas Ntamack. 
-Le monument, conçu par le lieutenant-colonel Maurice Teguel, architecte, fut réalisé par Jacques Mpeck Tedga[1]. Il est constitué d’une statue de 6 m de hauteur, placée sur un socle de 5 m pesant 20 tonnes dans un jardin public de 400 m2.
+Le monument, conçu par le lieutenant-colonel Maurice Teguel, architecte, fut réalisé par Jacques Mpeck Tedga. Il est constitué d’une statue de 6 m de hauteur, placée sur un socle de 5 m pesant 20 tonnes dans un jardin public de 400 m2.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Les victimes inscrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruben Um Nyobe
 </t>
